--- a/Mision1/proyecto1/Libro1.xlsx
+++ b/Mision1/proyecto1/Libro1.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E4" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15"/>
@@ -513,6 +513,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.3456.4.4.6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>roberto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mejia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13456446</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>roberto mejia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>33,4…3…4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>andres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>beltran</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33434</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>andres beltran</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
